--- a/dati/rawdata/provinciaCaltanissetta/source/Covid Report 14 Marzo.xlsx
+++ b/dati/rawdata/provinciaCaltanissetta/source/Covid Report 14 Marzo.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTrobia\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="pr asp" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>EMERGENZA COVID-19</t>
   </si>
@@ -54,15 +60,6 @@
     <t>Positivi in Quarantena domiciliare</t>
   </si>
   <si>
-    <t>Tamponi Effettuati</t>
-  </si>
-  <si>
-    <t>Tamponi Negativi</t>
-  </si>
-  <si>
-    <t>Tamponi in attesa risultato</t>
-  </si>
-  <si>
     <t>ricoverati altro presidio</t>
   </si>
   <si>
@@ -81,15 +78,6 @@
     <t>Totali</t>
   </si>
   <si>
-    <t>di cui "non contatti Covid-19"</t>
-  </si>
-  <si>
-    <t>di cui "contatti Covid-19"</t>
-  </si>
-  <si>
-    <t>Casi isolati in ambito scolastico</t>
-  </si>
-  <si>
     <t>Acquaviva Platani</t>
   </si>
   <si>
@@ -102,7 +90,7 @@
     <t>Campofranco</t>
   </si>
   <si>
-    <t>Catanissetta</t>
+    <t>Caltanissetta</t>
   </si>
   <si>
     <t>Delia</t>
@@ -163,7 +151,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-410]d\-mmm\-yyyy"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,14 +179,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -213,7 +204,9 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -225,8 +218,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +252,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8DB3E2"/>
-        <bgColor rgb="FF8DB3E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -341,6 +334,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -399,21 +407,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,10 +474,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,9 +497,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,10 +511,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,35 +520,44 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -564,15 +566,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,7 +667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,10 +879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -892,20 +893,18 @@
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -919,16 +918,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
@@ -946,16 +938,9 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -969,16 +954,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -988,34 +966,27 @@
       <c r="H5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="43">
-        <v>44269</v>
-      </c>
-      <c r="J5" s="41"/>
+      <c r="I5" s="12">
+        <v>44634</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="9"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="14"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1023,16 +994,9 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1052,974 +1016,719 @@
       <c r="I7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26">
+        <v>9</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26">
+        <v>141</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="24">
+        <f t="shared" ref="N8:N31" si="0">SUM(F8:M8)</f>
+        <v>150</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="24">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="22" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26">
+        <v>4</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26">
+        <v>76</v>
+      </c>
+      <c r="L9" s="26">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="24">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27">
+        <v>41</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27">
+        <v>546</v>
+      </c>
+      <c r="L10" s="26">
+        <v>3</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="24">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="24">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26">
+        <v>70</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26">
+        <v>481</v>
+      </c>
+      <c r="L11" s="26">
+        <v>4</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="24">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="24">
+        <v>5</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28">
+        <v>12</v>
+      </c>
+      <c r="H12" s="27">
+        <v>918</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27">
+        <v>10337</v>
+      </c>
+      <c r="L12" s="26">
+        <v>89</v>
+      </c>
+      <c r="M12" s="26">
+        <v>1</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="0"/>
+        <v>11360</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="24">
+        <v>6</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="24"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="H13" s="26">
+        <v>63</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26">
+        <v>519</v>
+      </c>
+      <c r="L13" s="26">
+        <v>3</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="24">
+        <v>7</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27">
+      <c r="E14" s="7"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="28">
         <v>10</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="25">
-        <f t="shared" ref="R8:R31" si="0">SUM(F8:Q8)</f>
+      <c r="H14" s="27">
+        <v>1203</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27">
+        <v>17579</v>
+      </c>
+      <c r="L14" s="26">
+        <v>145</v>
+      </c>
+      <c r="M14" s="26">
+        <v>1</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="0"/>
+        <v>18939</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="24">
+        <v>8</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26">
+        <v>9</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26">
+        <v>299</v>
+      </c>
+      <c r="L15" s="26">
+        <v>8</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="24">
+        <v>9</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25">
+        <v>3</v>
+      </c>
+      <c r="H16" s="27">
+        <v>93</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27">
+        <v>2199</v>
+      </c>
+      <c r="L16" s="26">
+        <v>8</v>
+      </c>
+      <c r="M16" s="26">
+        <v>1</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="24">
         <v>10</v>
       </c>
-      <c r="S8" s="27">
-        <v>3</v>
-      </c>
-      <c r="T8" s="27">
+      <c r="D17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26">
+        <v>38</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26">
+        <v>400</v>
+      </c>
+      <c r="L17" s="26">
         <v>7</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="25">
+      <c r="M17" s="26"/>
+      <c r="N17" s="24">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="24">
+        <v>11</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26">
+        <v>16</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26">
+        <v>196</v>
+      </c>
+      <c r="L18" s="26">
+        <v>4</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="24">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="24">
+        <v>12</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27">
+        <v>200</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27">
+        <v>1820</v>
+      </c>
+      <c r="L19" s="26">
+        <v>12</v>
+      </c>
+      <c r="M19" s="26">
+        <v>1</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="24">
+        <v>13</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="27">
+        <v>227</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27">
+        <v>6067</v>
+      </c>
+      <c r="L20" s="26">
+        <v>52</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="24">
+        <f t="shared" si="0"/>
+        <v>6347</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="24">
+        <v>14</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="26">
+        <v>12</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26">
+        <v>222</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="24">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="24">
+        <v>15</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="27">
+        <v>47</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27">
+        <v>1722</v>
+      </c>
+      <c r="L22" s="26">
+        <v>16</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="24">
+        <f t="shared" si="0"/>
+        <v>1786</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="24">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25">
+        <v>5</v>
+      </c>
+      <c r="H23" s="30">
+        <v>386</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27">
+        <v>3588</v>
+      </c>
+      <c r="L23" s="26">
+        <v>26</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="24">
+        <f t="shared" si="0"/>
+        <v>4005</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="24">
+        <v>17</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="H24" s="27">
+        <v>64</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27">
+        <v>762</v>
+      </c>
+      <c r="L24" s="26">
+        <v>4</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="24">
+        <v>18</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="28">
+        <v>5</v>
+      </c>
+      <c r="H25" s="27">
+        <v>106</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27">
+        <v>864</v>
+      </c>
+      <c r="L25" s="26">
+        <v>7</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="24">
+        <f t="shared" si="0"/>
+        <v>982</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="Q25" s="41"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="24">
+        <v>19</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25">
+        <v>2</v>
+      </c>
+      <c r="H26" s="27">
+        <v>144</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26">
+        <v>855</v>
+      </c>
+      <c r="L26" s="26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="24">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="41"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="24">
+        <v>20</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26">
+        <v>35</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26">
+        <v>71</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="24">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="24">
+        <v>21</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26">
+        <v>43</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26">
+        <v>714</v>
+      </c>
+      <c r="L28" s="26">
+        <v>1</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="24">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="24">
         <v>22</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
-        <v>18</v>
-      </c>
-      <c r="O9" s="27">
+      <c r="D29" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26">
+        <v>15</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26">
+        <v>224</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="24">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32">
         <v>1</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="25">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="S9" s="27">
-        <v>7</v>
-      </c>
-      <c r="T9" s="27">
-        <v>12</v>
-      </c>
-      <c r="U9" s="27"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="25">
-        <v>3</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27">
-        <v>4</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27">
-        <v>77</v>
-      </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="25">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="S10" s="27">
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33">
+        <v>72</v>
+      </c>
+      <c r="L30" s="33">
         <v>37</v>
       </c>
-      <c r="T10" s="27">
-        <v>44</v>
-      </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="9"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="25">
-        <v>4</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26">
-        <v>1</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27">
-        <v>40</v>
-      </c>
-      <c r="O11" s="27">
-        <v>2</v>
-      </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="25">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="S11" s="27">
-        <v>20</v>
-      </c>
-      <c r="T11" s="27">
-        <v>24</v>
-      </c>
-      <c r="U11" s="27"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="25">
-        <v>5</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="26">
-        <v>3</v>
-      </c>
-      <c r="G12" s="26">
-        <v>23</v>
-      </c>
-      <c r="H12" s="27">
-        <v>210</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27">
-        <v>1</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27">
-        <v>1119</v>
-      </c>
-      <c r="O12" s="27">
-        <v>25</v>
-      </c>
-      <c r="P12" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="25">
-        <f t="shared" si="0"/>
-        <v>1382</v>
-      </c>
-      <c r="S12" s="27">
-        <v>567</v>
-      </c>
-      <c r="T12" s="27">
-        <v>852</v>
-      </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="25">
-        <v>6</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26">
-        <v>1</v>
-      </c>
-      <c r="H13" s="27">
-        <v>10</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27">
-        <v>31</v>
-      </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="25">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="S13" s="27">
-        <v>26</v>
-      </c>
-      <c r="T13" s="27">
-        <v>17</v>
-      </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="25">
-        <v>7</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="26">
-        <v>1</v>
-      </c>
-      <c r="G14" s="26">
-        <v>6</v>
-      </c>
-      <c r="H14" s="27">
-        <v>54</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27">
-        <v>3</v>
-      </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27">
-        <v>2761</v>
-      </c>
-      <c r="O14" s="27">
-        <v>62</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="25">
-        <f t="shared" si="0"/>
-        <v>2887</v>
-      </c>
-      <c r="S14" s="27">
-        <v>1037</v>
-      </c>
-      <c r="T14" s="27">
-        <v>1869</v>
-      </c>
-      <c r="U14" s="27">
-        <v>1</v>
-      </c>
-      <c r="V14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="25">
-        <v>8</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27">
-        <v>6</v>
-      </c>
-      <c r="O15" s="27">
-        <v>1</v>
-      </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="S15" s="27">
-        <v>7</v>
-      </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="9"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="25">
-        <v>9</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27">
-        <v>7</v>
-      </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27">
-        <v>192</v>
-      </c>
-      <c r="O16" s="27">
-        <v>3</v>
-      </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="25">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="S16" s="27">
-        <v>66</v>
-      </c>
-      <c r="T16" s="27">
-        <v>146</v>
-      </c>
-      <c r="U16" s="27"/>
-      <c r="V16" s="9"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="25">
-        <v>10</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26">
-        <v>1</v>
-      </c>
-      <c r="H17" s="27">
-        <v>9</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27">
-        <v>141</v>
-      </c>
-      <c r="O17" s="27">
-        <v>5</v>
-      </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="25">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="S17" s="27">
-        <v>77</v>
-      </c>
-      <c r="T17" s="27">
-        <v>82</v>
-      </c>
-      <c r="U17" s="27"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="25">
-        <v>11</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27">
-        <v>32</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27">
-        <v>37</v>
-      </c>
-      <c r="O18" s="27">
-        <v>2</v>
-      </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="25">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="S18" s="27">
-        <v>40</v>
-      </c>
-      <c r="T18" s="27">
-        <v>28</v>
-      </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="25">
-        <v>12</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26">
-        <v>3</v>
-      </c>
-      <c r="H19" s="27">
-        <v>43</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27">
-        <v>152</v>
-      </c>
-      <c r="O19" s="27">
-        <v>4</v>
-      </c>
-      <c r="P19" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="25">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="S19" s="27">
-        <v>103</v>
-      </c>
-      <c r="T19" s="27">
-        <v>123</v>
-      </c>
-      <c r="U19" s="27">
-        <v>1</v>
-      </c>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="25">
-        <v>13</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26">
-        <v>2</v>
-      </c>
-      <c r="H20" s="27">
-        <v>63</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27">
-        <v>976</v>
-      </c>
-      <c r="O20" s="27">
-        <v>20</v>
-      </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="25">
-        <f t="shared" si="0"/>
-        <v>1061</v>
-      </c>
-      <c r="S20" s="27">
-        <v>341</v>
-      </c>
-      <c r="T20" s="27">
-        <v>730</v>
-      </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="9"/>
-    </row>
-    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="25">
-        <v>14</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27">
-        <v>54</v>
-      </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="25">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="S21" s="27">
-        <v>18</v>
-      </c>
-      <c r="T21" s="27">
-        <v>28</v>
-      </c>
-      <c r="U21" s="27">
-        <v>10</v>
-      </c>
-      <c r="V21" s="9"/>
-    </row>
-    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="25">
-        <v>15</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26">
-        <v>2</v>
-      </c>
-      <c r="H22" s="27">
-        <v>81</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27">
-        <v>1</v>
-      </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27">
-        <v>164</v>
-      </c>
-      <c r="O22" s="27">
-        <v>6</v>
-      </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="25">
-        <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-      <c r="S22" s="27">
-        <v>91</v>
-      </c>
-      <c r="T22" s="27">
-        <v>185</v>
-      </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="9"/>
-    </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="25">
-        <v>16</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28">
-        <v>31</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27">
-        <v>546</v>
-      </c>
-      <c r="O23" s="27">
-        <v>9</v>
-      </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="25">
-        <f t="shared" si="0"/>
-        <v>590</v>
-      </c>
-      <c r="S23" s="27">
-        <v>226</v>
-      </c>
-      <c r="T23" s="27">
-        <v>359</v>
-      </c>
-      <c r="U23" s="27"/>
-      <c r="V23" s="9"/>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="25">
-        <v>17</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27">
-        <v>2</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27">
-        <v>62</v>
-      </c>
-      <c r="O24" s="27">
-        <v>1</v>
-      </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="25">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="S24" s="27">
-        <v>30</v>
-      </c>
-      <c r="T24" s="27">
-        <v>35</v>
-      </c>
-      <c r="U24" s="27"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="25">
-        <v>18</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26">
-        <v>1</v>
-      </c>
-      <c r="H25" s="27">
-        <v>38</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27">
-        <v>87</v>
-      </c>
-      <c r="O25" s="27">
-        <v>1</v>
-      </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="25">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="S25" s="27">
-        <v>42</v>
-      </c>
-      <c r="T25" s="27">
-        <v>87</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="9"/>
-    </row>
-    <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="25">
-        <v>19</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27">
-        <v>5</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27">
-        <v>47</v>
-      </c>
-      <c r="O26" s="27">
-        <v>2</v>
-      </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="25">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="S26" s="27">
-        <v>19</v>
-      </c>
-      <c r="T26" s="27">
-        <v>38</v>
-      </c>
-      <c r="U26" s="27"/>
-      <c r="V26" s="9"/>
-    </row>
-    <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="25">
-        <v>20</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27">
-        <v>3</v>
-      </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27">
-        <v>2</v>
-      </c>
-      <c r="U27" s="27"/>
-      <c r="V27" s="9"/>
-    </row>
-    <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="25">
-        <v>21</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27">
-        <v>15</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27">
-        <v>22</v>
-      </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="25">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="S28" s="27">
-        <v>20</v>
-      </c>
-      <c r="T28" s="27">
-        <v>17</v>
-      </c>
-      <c r="U28" s="27"/>
-      <c r="V28" s="9"/>
-    </row>
-    <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="25">
-        <v>22</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27">
-        <v>17</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27">
-        <v>26</v>
-      </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="25">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="S29" s="27">
-        <v>20</v>
-      </c>
-      <c r="T29" s="27">
-        <v>25</v>
-      </c>
-      <c r="U29" s="27"/>
-      <c r="V29" s="9"/>
-    </row>
-    <row r="30" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31">
-        <v>2</v>
-      </c>
-      <c r="M30" s="31">
-        <v>14</v>
-      </c>
-      <c r="N30" s="31">
-        <v>46</v>
-      </c>
-      <c r="O30" s="31">
-        <v>25</v>
-      </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="25">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="V30" s="9"/>
-    </row>
-    <row r="31" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="33"/>
+      <c r="N30" s="24">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2032,157 +1741,131 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="25">
+      <c r="N31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="V31" s="9"/>
-    </row>
-    <row r="32" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33" t="s">
-        <v>17</v>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="34">
-        <f t="shared" ref="F32:H32" si="1">SUM(F8:F30)</f>
-        <v>6</v>
-      </c>
-      <c r="G32" s="34">
+      <c r="F32" s="36">
+        <f t="shared" ref="F32:M32" si="1">SUM(F8:F30)</f>
+        <v>2</v>
+      </c>
+      <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="H32" s="34">
+        <v>43</v>
+      </c>
+      <c r="H32" s="36">
         <f t="shared" si="1"/>
-        <v>621</v>
-      </c>
-      <c r="I32" s="34">
-        <v>63364</v>
-      </c>
-      <c r="J32" s="34">
-        <v>46132</v>
-      </c>
-      <c r="K32" s="34">
-        <f t="shared" ref="K32:P32" si="2">SUM(K8:K30)</f>
+        <v>3743</v>
+      </c>
+      <c r="I32" s="36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="36">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L32" s="34">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M32" s="34">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="N32" s="34">
-        <f t="shared" si="2"/>
-        <v>6617</v>
-      </c>
-      <c r="O32" s="34">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-      <c r="P32" s="34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="38"/>
-    </row>
-    <row r="34" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="36">
+        <f t="shared" si="1"/>
+        <v>49754</v>
+      </c>
+      <c r="L32" s="36">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="M32" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="40"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
@@ -2395,10 +2078,9 @@
       <c r="G100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
